--- a/Evaluation result.xlsx
+++ b/Evaluation result.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dil\2020-1학기\학부수업(데이터과학)\과제5.Word2vec-advanced\Word2vec2-assignment-최종\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhyuk\Desktop\DS\Word2vec-assignment (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50EB2C9-C56E-4A37-AC67-4F37EE6DB1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t xml:space="preserve"> [결과 정리]</t>
   </si>
@@ -108,13 +107,17 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,11 +659,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:L15"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -745,12 +748,18 @@
       <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="I4" s="4">
         <v>300</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4">
+        <v>320000</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
     </row>
@@ -770,12 +779,18 @@
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="4">
         <v>300</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4">
+        <v>320000</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
     </row>
@@ -793,12 +808,18 @@
       <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="I6" s="4">
         <v>300</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4">
+        <v>320000</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
     </row>
@@ -816,12 +837,18 @@
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="I7" s="4">
         <v>300</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4">
+        <v>320000</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
     </row>
@@ -841,12 +868,18 @@
       <c r="F8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="4">
         <v>300</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4">
+        <v>320000</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="5"/>
     </row>
@@ -866,12 +899,18 @@
       <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="I9" s="4">
         <v>300</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4">
+        <v>320000</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="5"/>
     </row>

--- a/Evaluation result.xlsx
+++ b/Evaluation result.xlsx
@@ -878,7 +878,7 @@
         <v>300</v>
       </c>
       <c r="J8" s="4">
-        <v>320000</v>
+        <v>4000000</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="5"/>
@@ -909,7 +909,7 @@
         <v>300</v>
       </c>
       <c r="J9" s="4">
-        <v>320000</v>
+        <v>4000000</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="5"/>

--- a/Evaluation result.xlsx
+++ b/Evaluation result.xlsx
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
-  <si>
-    <t xml:space="preserve"> [결과 정리]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>Word2vec Evaluation Report</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -95,22 +92,43 @@
     <t>setting #5</t>
   </si>
   <si>
+    <t>training time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t># of negative samples</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>388.55min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>176.24min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2520.10min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2345.25min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>setting #6</t>
-  </si>
-  <si>
-    <t>training time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t># of negative samples</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [결과 정리] 일반적인 softmax와 Hierarchical softmax을 비교했을 때 오차 범위 내 비슷한 성능에 비해 매우 놀라운 학습시간의 단축을 보여주었고, subsampling의 경우 빈도가 높은 단어는 높은 확률로 버려지고 다시 뽑아야만 하기 때문에 사용하지 않은 모델보다 긴 학습시간을 보여주었다. 그 외로, 같은 모델을 여러 번 돌려본 결과 Batch 처리를 하지 않고 한 번에 한 개의 데이터만 무작위로 뽑아 학습시키기 때문에 정확도의 불안정성이 매우 심했다. (Corpus의 size가 17005207이므로 실제 하나의 centerword/contextwords 쌍에 대해 학습하는 수는 굉장히 적다) 이는 Batch 처리를 하여 많은 데이터가 효율적으로 학습되도록 바꾸거나, iteration 수를 늘리면 개선될 것이라 생각한다. (단, 학습 시간은 매우 길어질 것이고, 이를 hierarchical softmax나 negative sampling 없이 실행한다면 불가능에 가까울 것이다.)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +681,7 @@
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B10" sqref="B10:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -686,7 +704,7 @@
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -702,117 +720,125 @@
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" s="4">
         <v>300</v>
       </c>
       <c r="J4" s="4">
-        <v>320000</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
+        <v>1500000</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.1875</v>
+      </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" s="4">
         <v>300</v>
       </c>
       <c r="J5" s="4">
-        <v>320000</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
+        <v>1500000</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.21875</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I6" s="4">
         <v>300</v>
@@ -825,23 +851,23 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7" s="4">
         <v>300</v>
@@ -854,69 +880,77 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I8" s="4">
         <v>300</v>
       </c>
       <c r="J8" s="4">
-        <v>4000000</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
+        <v>1500000</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.21875</v>
+      </c>
     </row>
     <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I9" s="4">
         <v>300</v>
       </c>
       <c r="J9" s="4">
-        <v>4000000</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
+        <v>1500000</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>

--- a/Evaluation result.xlsx
+++ b/Evaluation result.xlsx
@@ -681,7 +681,7 @@
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:L15"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -830,12 +830,14 @@
       <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6">
+        <v>10</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>19</v>
@@ -859,12 +861,14 @@
       <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>19</v>

--- a/Evaluation result.xlsx
+++ b/Evaluation result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhyuk\Desktop\DS\Word2vec-assignment (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhyuk\Desktop\1조_word2vec.zip\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Word2vec Evaluation Report</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -116,19 +116,67 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2520.10min</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2345.25min</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>setting #6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> [결과 정리] 일반적인 softmax와 Hierarchical softmax을 비교했을 때 오차 범위 내 비슷한 성능에 비해 매우 놀라운 학습시간의 단축을 보여주었고, subsampling의 경우 빈도가 높은 단어는 높은 확률로 버려지고 다시 뽑아야만 하기 때문에 사용하지 않은 모델보다 긴 학습시간을 보여주었다. 그 외로, 같은 모델을 여러 번 돌려본 결과 Batch 처리를 하지 않고 한 번에 한 개의 데이터만 무작위로 뽑아 학습시키기 때문에 정확도의 불안정성이 매우 심했다. (Corpus의 size가 17005207이므로 실제 하나의 centerword/contextwords 쌍에 대해 학습하는 수는 굉장히 적다) 이는 Batch 처리를 하여 많은 데이터가 효율적으로 학습되도록 바꾸거나, iteration 수를 늘리면 개선될 것이라 생각한다. (단, 학습 시간은 매우 길어질 것이고, 이를 hierarchical softmax나 negative sampling 없이 실행한다면 불가능에 가까울 것이다.)</t>
+    <t>859.97min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>976.83min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최민혁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유원석</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chang chun</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기여도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맡은 일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hierarchical softmax + Subsampling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Negative sampling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 등으로 연락을 취해보려 했으니 연락이 전혀 안 됩니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>781.75min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>840.10min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [결과 정리] 일반적인 softmax와 Hierarchical softmax을 비교했을 때 오차 범위 내 비슷한 성능에 비해 매우 놀라운 학습시간의 단축을 보여주었고, subsampling의 경우 빈도가 높은 단어는 높은 확률로 버려지고 다시 뽑아야만 하기 때문에 사용하지 않은 모델보다 긴 학습시간을 보여주었다. 또한, Hierarchical softmax와 negative sampling를 비교할 때 후자의 경우 negative sample을 뽑을 때 단어 개수가 굉장히 많고, 각각의 단어에 따른 확률분포로 샘플을 뽑아야 하기 때문에 Hierarchical softmax에 비해 학습 시간이 오래 걸린다고 추측한다. 그 외로, 같은 모델을 여러 번 돌려본 결과 Batch 처리를 하지 않고 한 번에 한 개의 데이터만 무작위로 뽑아 학습시키기 때문에 정확도의 불안정성이 매우 심했고 대체로 정확도 또한 매우 부족하다. (Corpus의 size가 17005207이므로 iteration이 1500000이라 하더라도 실제 하나의 centerword/contextwords 쌍에 대해 학습하는 수는 한번 혹은 아예 학습되지 않을 수 있다) 이는 Batch 처리를 하여 많은 데이터가 효율적으로 학습되도록 바꾸거나, iteration 수를 크게 늘리면 개선될 것이라 생각한다. (단, 학습 시간은 매우 길어질 것이고, 이를 hierarchical softmax나 negative sampling 없이 실행한다면 불가능에 가까울 것이다.)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -289,6 +337,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L15"/>
+  <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -703,19 +757,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -776,13 +830,13 @@
         <v>300</v>
       </c>
       <c r="J4" s="4">
-        <v>1500000</v>
+        <v>500000</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L4" s="5">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
@@ -811,13 +865,13 @@
         <v>300</v>
       </c>
       <c r="J5" s="4">
-        <v>1500000</v>
+        <v>500000</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L5" s="5">
-        <v>0.21875</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -846,10 +900,14 @@
         <v>300</v>
       </c>
       <c r="J6" s="4">
-        <v>320000</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
+        <v>1500000</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.15625</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
@@ -877,10 +935,14 @@
         <v>300</v>
       </c>
       <c r="J7" s="4">
-        <v>320000</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
+        <v>1500000</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.15625</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
@@ -914,12 +976,12 @@
         <v>21</v>
       </c>
       <c r="L8" s="5">
-        <v>0.21875</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>4</v>
@@ -949,88 +1011,135 @@
         <v>20</v>
       </c>
       <c r="L9" s="5">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
